--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -706,7 +706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1164a2c7-d871-44ef-a4cd-b7df1d9b2946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5170ef90-c3bb-4d74-8ebf-7829a118c6a6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1d3508f0-37d9-415f-8ab5-6fcdf708d5ea}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d4a3105b-7168-433f-86be-fd839d00684f}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1075,7 +1075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{03377e02-b1e0-4941-a8c0-469b70d7e0e7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{2b2722e7-2df4-4e03-bd50-ce3c5039144b}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -151,28 +151,31 @@
     <t>p. Najwer, informatyka za poniedziałek 15.12 lekcja 1</t>
   </si>
   <si>
+    <t>19.12.2025, 1, 08:00-08:45, sala: 04</t>
+  </si>
+  <si>
+    <t>18.12.2025, 5, 11:25-12:10, sala: 28</t>
+  </si>
+  <si>
+    <t>Wojciechowski Łukasz</t>
+  </si>
+  <si>
+    <t>3TFA|JA1</t>
+  </si>
+  <si>
+    <t>p. Wojciechowski, j. angielski z piątku 19.12 na lekcję 5, czwartek 18.12.2025</t>
+  </si>
+  <si>
     <t>18.12.2025, 3, 09:40-10:25, sala: 38</t>
   </si>
   <si>
-    <t>18.12.2025, 4, 10:35-11:20, sala: 38</t>
+    <t>18.12.2025, 6, 12:25-13:10, sala: 38</t>
   </si>
   <si>
     <t>1TFA|JA1</t>
   </si>
   <si>
-    <t>19.12.2025, 1, 08:00-08:45, sala: 04</t>
-  </si>
-  <si>
-    <t>18.12.2025, 5, 11:25-12:10, sala: 28</t>
-  </si>
-  <si>
-    <t>Wojciechowski Łukasz</t>
-  </si>
-  <si>
-    <t>3TFA|JA1</t>
-  </si>
-  <si>
-    <t>p. Wojciechowski, j. angielski z piątku 19.12 na lekcję 5, czwartek 18.12.2025</t>
+    <t>p. Najwer, informatyka za lekcję 3</t>
   </si>
   <si>
     <t>16.12.2025, 11, 16:35-17:20, sala: 5</t>
@@ -706,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5170ef90-c3bb-4d74-8ebf-7829a118c6a6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{87ed1ee8-e161-4b92-a3fc-dd9fe34f23ba}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -730,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d4a3105b-7168-433f-86be-fd839d00684f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5781f932-ffdc-4b13-b9d0-9f9cc00055fa}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -937,131 +940,131 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -1075,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{2b2722e7-2df4-4e03-bd50-ce3c5039144b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{11ee429f-d06c-4b72-b8ea-5ad3b9d5fc75}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1097,13 +1100,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1111,16 +1114,16 @@
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{87ed1ee8-e161-4b92-a3fc-dd9fe34f23ba}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3f0b94be-be8c-404d-82da-a030b276d621}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5781f932-ffdc-4b13-b9d0-9f9cc00055fa}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{f0f13358-33b8-4a27-b5a5-60e39cc10986}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{11ee429f-d06c-4b72-b8ea-5ad3b9d5fc75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e33c939c-0924-45c8-852d-40cbacbea917}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -256,7 +256,7 @@
     <t>16.12.2025, 10:35-11:20</t>
   </si>
   <si>
-    <t>16.12.2025, 11:20-12:05</t>
+    <t>17.12.2025, 08:55-09:40</t>
   </si>
   <si>
     <t>Krzysztof Miedziński - 3TFB - indywidualne nauczanie</t>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3f0b94be-be8c-404d-82da-a030b276d621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{31ee89a8-9974-4fad-a82f-a790f5cf5bf5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{f0f13358-33b8-4a27-b5a5-60e39cc10986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{92157fbf-1ca8-41ab-bdf0-fab21483786d}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e33c939c-0924-45c8-852d-40cbacbea917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6b2e1541-95b2-48cc-9432-69b6741db019}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{31ee89a8-9974-4fad-a82f-a790f5cf5bf5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{30ff6a29-1c62-48ca-a481-a0695d052361}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{92157fbf-1ca8-41ab-bdf0-fab21483786d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{8e21401c-1034-4b0a-8f5b-f65911b627fe}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6b2e1541-95b2-48cc-9432-69b6741db019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0b7d7f46-00c2-4f4f-b452-f629afb231a8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -166,6 +166,18 @@
     <t>Zajęcia z wychowawcą</t>
   </si>
   <si>
+    <t>17.12.2025, 7, 13:15-14:00, sala: 41</t>
+  </si>
+  <si>
+    <t>17.12.2025, 7, 13:15-14:00, sala: 22</t>
+  </si>
+  <si>
+    <t>Wójcik Kamil</t>
+  </si>
+  <si>
+    <t>1WA</t>
+  </si>
+  <si>
     <t>19.12.2025, 1, 08:00-08:45, sala: 04</t>
   </si>
   <si>
@@ -244,7 +256,7 @@
     <t>19.12.2025, 10, 15:45-16:30, sala: 40</t>
   </si>
   <si>
-    <t>19.12.2025, 9, 14:55-15:40, sala: 40</t>
+    <t>19.12.2025, 9, 14:55-15:40, sala: 4</t>
   </si>
   <si>
     <t>Jarek Zbigniew</t>
@@ -721,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3af7a88a-5d0f-485d-86d6-2e4f2c9ca1fd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ab126042-2cee-46ed-993f-3cff17a16232}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -745,8 +757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3f538379-648a-468c-a7ff-41c46bef6ce8}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fbeb8bb0-b71b-422a-b3c0-8d7ad2b68079}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -984,21 +996,21 @@
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1007,7 +1019,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -1021,87 +1033,110 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1113,7 +1148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{c9dcb685-312b-4e4e-a1a1-485d983530d0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b841efec-3ede-42c5-8240-b9523317b49f}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1135,13 +1170,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1149,16 +1184,16 @@
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -196,7 +196,7 @@
     <t>18.12.2025, 3, 09:40-10:25, sala: 38</t>
   </si>
   <si>
-    <t>18.12.2025, 6, 12:25-13:10, sala: 38</t>
+    <t>18.12.2025, 6, 12:25-13:10, sala: 37</t>
   </si>
   <si>
     <t>1TFA|JA1</t>
@@ -251,6 +251,36 @@
   </si>
   <si>
     <t>p. Bujanowska, matematyka przeniesiona z lekcji 11, sala 19</t>
+  </si>
+  <si>
+    <t>19.12.2025, 6, 12:25-13:10, sala: 44</t>
+  </si>
+  <si>
+    <t>19.12.2025, 6, 12:25-13:10, sala: 42</t>
+  </si>
+  <si>
+    <t>Misiąg Anna</t>
+  </si>
+  <si>
+    <t>3TH|JA1</t>
+  </si>
+  <si>
+    <t>Język niemiecki</t>
+  </si>
+  <si>
+    <t>19.12.2025, 7, 13:15-14:00, sala: 22</t>
+  </si>
+  <si>
+    <t>19.12.2025, 7, 13:15-14:00, sala: 42</t>
+  </si>
+  <si>
+    <t>Biczysko Wojciech</t>
+  </si>
+  <si>
+    <t>3TH</t>
+  </si>
+  <si>
+    <t>Fizyka</t>
   </si>
   <si>
     <t>19.12.2025, 10, 15:45-16:30, sala: 40</t>
@@ -733,7 +763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ab126042-2cee-46ed-993f-3cff17a16232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{f878864b-9073-4444-bea4-8d47a7c8363d}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -757,8 +787,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fbeb8bb0-b71b-422a-b3c0-8d7ad2b68079}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{530bc1ab-381b-46ba-b11b-c1665786af79}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1140,6 +1170,52 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1148,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b841efec-3ede-42c5-8240-b9523317b49f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{c30f98e0-4124-4729-b998-348ea7947635}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1170,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1184,16 +1260,16 @@
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
   <si>
-    <t>Okres: 05.01.2026 (pon.) - 09.01.2026 (pt.)</t>
+    <t>Okres: 05.01.2026 (pon.) - 11.01.2026 (niedz.)</t>
   </si>
   <si>
     <t>Przeniesiono z</t>
@@ -114,6 +114,252 @@
   </si>
   <si>
     <t>p. Najwer, informatyka przeniesiona na lekcję 8</t>
+  </si>
+  <si>
+    <t>09.01.2026, 1, 08:00-08:45, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 1, 08:00-08:45, sala: prs</t>
+  </si>
+  <si>
+    <t>Świerzewicz Katarzyna</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - Zasady zdrowego żywienia</t>
+  </si>
+  <si>
+    <t>09.01.2026, 1, 08:00-08:45, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 1, 08:00-08:45, sala: 37</t>
+  </si>
+  <si>
+    <t>Taszycka Magdalena</t>
+  </si>
+  <si>
+    <t>3TFA|JA2</t>
+  </si>
+  <si>
+    <t>09.01.2026, 2, 08:50-09:35, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 2, 08:50-09:35, sala: prs</t>
+  </si>
+  <si>
+    <t>09.01.2026, 2, 08:50-09:35, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 2, 08:50-09:35, sala: 37</t>
+  </si>
+  <si>
+    <t>Zajęcia z wychowawcą</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 41</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 23</t>
+  </si>
+  <si>
+    <t>1TFB</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 40</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 19</t>
+  </si>
+  <si>
+    <t>Kosin Anna</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>Towar jako przedmiot handlu</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: prs</t>
+  </si>
+  <si>
+    <t>Technika w produkcji gastronomicznej</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 3, 09:40-10:25, sala: 37</t>
+  </si>
+  <si>
+    <t>1TH|JA2</t>
+  </si>
+  <si>
+    <t>09.01.2026, 4, 10:35-11:20, sala: 41</t>
+  </si>
+  <si>
+    <t>09.01.2026, 4, 10:35-11:20, sala: 19</t>
+  </si>
+  <si>
+    <t>1TH</t>
+  </si>
+  <si>
+    <t>Obsługa klientów</t>
+  </si>
+  <si>
+    <t>09.01.2026, 4, 10:35-11:20, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 4, 10:35-11:20, sala: prs</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>Technologia gastronomiczna z towaroznawstwem</t>
+  </si>
+  <si>
+    <t>09.01.2026, 4, 10:35-11:20, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 4, 10:35-11:20, sala: 37</t>
+  </si>
+  <si>
+    <t>1WB|JN1</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 40</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 27</t>
+  </si>
+  <si>
+    <t>1WB</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 41</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 19</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: prs</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 5, 11:25-12:10, sala: 37</t>
+  </si>
+  <si>
+    <t>1CB|JA1</t>
+  </si>
+  <si>
+    <t>09.01.2026, 6, 12:25-13:10, sala: 43</t>
+  </si>
+  <si>
+    <t>09.01.2026, 6, 12:25-13:10, sala: 18</t>
+  </si>
+  <si>
+    <t>Staliś Donata</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>09.01.2026, 6, 12:25-13:10, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 6, 12:25-13:10, sala: prs</t>
+  </si>
+  <si>
+    <t>09.01.2026, 6, 12:25-13:10, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 6, 12:25-13:10, sala: 33</t>
+  </si>
+  <si>
+    <t>1S|JA1</t>
+  </si>
+  <si>
+    <t>09.01.2026, 7, 13:15-14:00, sala: 43</t>
+  </si>
+  <si>
+    <t>09.01.2026, 7, 13:15-14:00, sala: 27</t>
+  </si>
+  <si>
+    <t>Granatowska Mariola</t>
+  </si>
+  <si>
+    <t>1CA|JA2</t>
+  </si>
+  <si>
+    <t>09.01.2026, 7, 13:15-14:00, sala: 42</t>
+  </si>
+  <si>
+    <t>09.01.2026, 7, 13:15-14:00, sala: prs</t>
+  </si>
+  <si>
+    <t>09.01.2026, 7, 13:15-14:00, sala: 38</t>
+  </si>
+  <si>
+    <t>09.01.2026, 7, 13:15-14:00, sala: 32</t>
+  </si>
+  <si>
+    <t>1FC|JA1</t>
+  </si>
+  <si>
+    <t>09.01.2026, 8, 14:05-14:50, sala: 33</t>
+  </si>
+  <si>
+    <t>09.01.2026, 8, 14:05-14:50, sala: 32</t>
+  </si>
+  <si>
+    <t>4TFB|JA1</t>
+  </si>
+  <si>
+    <t>09.01.2026, 9, 14:55-15:40, sala: 43</t>
+  </si>
+  <si>
+    <t>09.01.2026, 9, 14:55-15:40, sala: 27</t>
+  </si>
+  <si>
+    <t>1CB</t>
+  </si>
+  <si>
+    <t>09.01.2026, 9, 14:55-15:40, sala: 33</t>
+  </si>
+  <si>
+    <t>09.01.2026, 9, 14:55-15:40, sala: 32</t>
+  </si>
+  <si>
+    <t>09.01.2026, 10, 15:45-16:30, sala: 40</t>
+  </si>
+  <si>
+    <t>09.01.2026, 10, 15:45-16:30, sala: 19</t>
+  </si>
+  <si>
+    <t>Jarek Zbigniew</t>
+  </si>
+  <si>
+    <t>1FB</t>
+  </si>
+  <si>
+    <t>Edukacja dla bezpieczeństwa</t>
+  </si>
+  <si>
+    <t>09.01.2026, 11, 16:35-17:20, sala: 43</t>
+  </si>
+  <si>
+    <t>09.01.2026, 11, 16:35-17:20, sala: 27</t>
   </si>
 </sst>
 </file>
@@ -563,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{17242bb7-8edb-4943-a985-e1567b2a0632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{32002bc7-70ba-4afa-ada9-be16a73fc755}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -587,18 +833,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ce2c5a20-3679-42b4-8b0a-9816999068e9}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{18af22e2-9761-466c-a52a-ae76e0c37fd0}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+    <col min="1" max="2" width="31.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="32.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="56.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,6 +963,604 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{92512a38-60e1-4909-9c47-429648f5ee56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{53870860-4e0a-4a58-9cb2-a5aff7c10615}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{905ceadc-ac85-4161-bcd8-1100b18d6bf4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{141d4a64-80d7-4735-9b55-9c5ee96c9e9e}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{53870860-4e0a-4a58-9cb2-a5aff7c10615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7518732d-6443-4a51-bc71-2bdbed1b0f7a}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{141d4a64-80d7-4735-9b55-9c5ee96c9e9e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a5a199f2-8baa-4fc4-ab9b-ffc031a60ee8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7518732d-6443-4a51-bc71-2bdbed1b0f7a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b65c0f22-cccb-45d0-ba51-01c3fd0682f3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a5a199f2-8baa-4fc4-ab9b-ffc031a60ee8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{61590c45-8bf7-458c-8ba1-ff6546f2fd1e}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
   <si>
-    <t>Okres: 12.01.2026 (pon.) - 18.01.2026 (niedz.)</t>
+    <t>Okres: 19.01.2026 (pon.) - 25.01.2026 (niedz.)</t>
   </si>
   <si>
     <t>Przeniesiono z</t>
@@ -47,25 +47,31 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>13.01.2026, 2, 08:50-09:35, sala: 28</t>
-  </si>
-  <si>
-    <t>15.01.2026, 2, 08:50-09:35, sala: 28</t>
-  </si>
-  <si>
-    <t>Sałdyka Karolina</t>
+    <t>23.01.2026, 8, 14:05-14:50, sala: 33</t>
+  </si>
+  <si>
+    <t>20.01.2026, 1, 08:00-08:45, sala: 33</t>
+  </si>
+  <si>
+    <t>Staliś Donata</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>3TFB</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>przeniesienie lekcji biologii z wtorku, 13 stycznia na czwartek 15 stycznia</t>
+    <t>4TFB|JA1</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>23.01.2026, 9, 14:55-15:40, sala: 33</t>
+  </si>
+  <si>
+    <t>20.01.2026, 2, 08:50-09:35, sala: 33</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b65c0f22-cccb-45d0-ba51-01c3fd0682f3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{725b9048-2abf-4e54-afd7-d42dde3bba9c}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -539,8 +545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{61590c45-8bf7-458c-8ba1-ff6546f2fd1e}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{dbba3a30-77a1-4a48-839b-441ffcb82e0f}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -550,8 +556,8 @@
     <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="32.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="64.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
@@ -597,6 +603,29 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -47,6 +47,27 @@
     <t>Uwagi</t>
   </si>
   <si>
+    <t>19.01.2026, 10, 15:45-16:30, sala: 31</t>
+  </si>
+  <si>
+    <t>19.01.2026, 5, 11:25-12:10, sala: 31</t>
+  </si>
+  <si>
+    <t>Kończyńska Małgorzata</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2CB</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>23.01.2026, 8, 14:05-14:50, sala: 33</t>
   </si>
   <si>
@@ -56,16 +77,10 @@
     <t>Staliś Donata</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4TFB|JA1</t>
   </si>
   <si>
     <t>Język angielski</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>23.01.2026, 9, 14:55-15:40, sala: 33</t>
@@ -521,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{725b9048-2abf-4e54-afd7-d42dde3bba9c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{83b1fb55-a548-4e19-9b90-e4859485fda9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -545,18 +560,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{dbba3a30-77a1-4a48-839b-441ffcb82e0f}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a7a564b8-23be-40e6-9fc4-ed3ef7214257}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="31.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="30.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="32.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="55.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -614,18 +630,41 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>20.01.2026, 2, 08:50-09:35, sala: 33</t>
+  </si>
+  <si>
+    <t>21.01.2026, 1, 08:00-08:45, sala: 38</t>
+  </si>
+  <si>
+    <t>21.01.2026, 8, 14:05-14:50, sala: 37</t>
+  </si>
+  <si>
+    <t>Najwer Maciej</t>
+  </si>
+  <si>
+    <t>3TH|JA2</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>informatyka, przeniesiona z lekcji 1 na lekcję 8</t>
   </si>
 </sst>
 </file>
@@ -536,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{83b1fb55-a548-4e19-9b90-e4859485fda9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0ac6e3e2-4d5b-452d-88e8-ad6392a3439c}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -560,8 +578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a7a564b8-23be-40e6-9fc4-ed3ef7214257}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0150b892-7b3d-4474-947d-d0db8fa81802}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -573,7 +591,7 @@
     <col min="4" max="4" width="32.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="55.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
+    <col min="7" max="7" width="41.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
@@ -666,6 +684,29 @@
       </c>
       <c r="G4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -554,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0ac6e3e2-4d5b-452d-88e8-ad6392a3439c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e431d2b7-b4eb-47a1-afe8-ab9186634442}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0150b892-7b3d-4474-947d-d0db8fa81802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e0f59303-b439-49ac-b4b6-af6c705d8865}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -554,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e431d2b7-b4eb-47a1-afe8-ab9186634442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fa852c65-ca61-490a-90e6-02e2a2169a3e}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e0f59303-b439-49ac-b4b6-af6c705d8865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5e7dd312-331e-4876-b308-0d8c0ea2397e}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
   <si>
-    <t>Okres: 19.01.2026 (pon.) - 25.01.2026 (niedz.)</t>
+    <t>Okres: 26.01.2026 (pon.) - 31.01.2026 (sob.)</t>
   </si>
   <si>
     <t>Przeniesiono z</t>
@@ -47,64 +47,58 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>19.01.2026, 10, 15:45-16:30, sala: 31</t>
-  </si>
-  <si>
-    <t>19.01.2026, 5, 11:25-12:10, sala: 31</t>
+    <t>26.01.2026, 8, 14:05-14:50, sala: 19</t>
+  </si>
+  <si>
+    <t>26.01.2026, 3, 09:40-10:25, sala: 19</t>
+  </si>
+  <si>
+    <t>Zaleska Magdalena</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3FA</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>26.01.2026, 10, 15:45-16:30, sala: 31</t>
+  </si>
+  <si>
+    <t>26.01.2026, 6, 12:25-13:10, sala: 27</t>
   </si>
   <si>
     <t>Kończyńska Małgorzata</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2CB</t>
   </si>
   <si>
     <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>23.01.2026, 8, 14:05-14:50, sala: 33</t>
-  </si>
-  <si>
-    <t>20.01.2026, 1, 08:00-08:45, sala: 33</t>
-  </si>
-  <si>
-    <t>Staliś Donata</t>
-  </si>
-  <si>
-    <t>4TFB|JA1</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>23.01.2026, 9, 14:55-15:40, sala: 33</t>
-  </si>
-  <si>
-    <t>20.01.2026, 2, 08:50-09:35, sala: 33</t>
-  </si>
-  <si>
-    <t>21.01.2026, 1, 08:00-08:45, sala: 38</t>
-  </si>
-  <si>
-    <t>21.01.2026, 8, 14:05-14:50, sala: 37</t>
-  </si>
-  <si>
-    <t>Najwer Maciej</t>
-  </si>
-  <si>
-    <t>3TH|JA2</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>informatyka, przeniesiona z lekcji 1 na lekcję 8</t>
+    <t>p. Kończyńska, RKZ za lekcję 10</t>
+  </si>
+  <si>
+    <t>26.01.2026, 7, 13:15-14:00, sala: 40</t>
+  </si>
+  <si>
+    <t>26.01.2026, 6, 12:25-13:10, sala: 40</t>
+  </si>
+  <si>
+    <t>Socha Dariusz</t>
+  </si>
+  <si>
+    <t>2TH</t>
+  </si>
+  <si>
+    <t>Obsługa klientów</t>
   </si>
 </sst>
 </file>
@@ -554,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fa852c65-ca61-490a-90e6-02e2a2169a3e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{758cc06b-b05c-4553-af11-02d58bcde524}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -578,8 +572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5e7dd312-331e-4876-b308-0d8c0ea2397e}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fb9a6b9c-c5c3-4515-861d-a665dd7abcf4}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -591,7 +585,7 @@
     <col min="4" max="4" width="32.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="55.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="41.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="28.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
@@ -660,53 +654,30 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
   <si>
-    <t>Okres: 26.01.2026 (pon.) - 31.01.2026 (sob.)</t>
+    <t>Okres: 26.01.2026 (pon.) - 01.02.2026 (niedz.)</t>
   </si>
   <si>
     <t>Przeniesiono z</t>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Obsługa klientów</t>
+  </si>
+  <si>
+    <t>27.01.2026, 13, 18:15-19:00, sala: 34</t>
+  </si>
+  <si>
+    <t>27.01.2026, 11, 16:35-17:20, sala: 34</t>
+  </si>
+  <si>
+    <t>Nowak Magdalena</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
   </si>
 </sst>
 </file>
@@ -548,7 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{758cc06b-b05c-4553-af11-02d58bcde524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{bed1eb6f-934e-466a-8f28-af72ee45bdb8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -572,15 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fb9a6b9c-c5c3-4515-861d-a665dd7abcf4}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ed14c844-6a3e-46c3-a211-bff941080f2b}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="30.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="31.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="32.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
@@ -680,6 +694,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/InformacjeOPrzeniesieniach.xlsx
+++ b/InformacjeOPrzeniesieniach.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>2TFA</t>
+  </si>
+  <si>
+    <t>30.01.2026, 9, 14:55-15:40, sala: 5</t>
+  </si>
+  <si>
+    <t>30.01.2026, 8, 14:05-14:50, sala: 4</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7af38650-bd95-4cc3-b0b6-7a8642600ebf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{138a8bf6-f0d9-432d-892c-46e64832422a}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -632,8 +638,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{4012604f-0ab5-421b-a967-372b9360b074}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a4f9b3a4-ba69-444d-bd1f-12548d63b4f1}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -854,6 +860,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
